--- a/task.xlsx
+++ b/task.xlsx
@@ -112,7 +112,431 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="95">
+  <dxfs count="150">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1195,7 +1619,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1295,25 +1719,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="expression" priority="18" stopIfTrue="1">
+    <cfRule type="expression" priority="25" stopIfTrue="1">
       <formula>C2&gt;=B2</formula>
     </cfRule>
-    <cfRule type="expression" priority="16" stopIfTrue="1">
+    <cfRule type="expression" priority="23" stopIfTrue="1">
       <formula>C2&gt;=B2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="22" operator="greaterThan">
       <formula>160</formula>
     </cfRule>
-    <cfRule type="expression" priority="14" stopIfTrue="1">
+    <cfRule type="expression" priority="21" stopIfTrue="1">
       <formula>$C1&gt;=$B1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="20" stopIfTrue="1">
       <formula>C1&gt;=B1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="19" operator="lessThan">
       <formula>160</formula>
     </cfRule>
-    <cfRule type="colorScale" priority="11">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1321,37 +1745,58 @@
         <color rgb="FFFFEF9C"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="17" operator="greaterThan">
       <formula>160</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="greaterThan">
       <formula>160</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="7">
+      <formula>C1&gt;=B1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="2">
+      <formula>C1&lt;B1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>C1&gt;=B1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="15" operator="greaterThan">
       <formula>150</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>150</formula>
     </cfRule>
-    <cfRule type="expression" priority="6" stopIfTrue="1">
+    <cfRule type="expression" priority="13" stopIfTrue="1">
       <formula>C2&gt;=B2</formula>
     </cfRule>
-    <cfRule type="expression" priority="5" stopIfTrue="1">
+    <cfRule type="expression" priority="12" stopIfTrue="1">
       <formula>C2&lt;B2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="33" priority="11" operator="lessThan">
       <formula>160</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="10" operator="lessThan">
       <formula>120</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="9" operator="greaterThan">
       <formula>150</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="8" operator="lessThan">
       <formula>140</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="6">
+      <formula>C1&gt;=B1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="38" priority="5">
+      <formula>C1&lt;B1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="4">
+      <formula>B1&gt;=C1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="30" priority="3">
+      <formula>B1&lt;C1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
